--- a/data/financial_statements/sofp/LYV.xlsx
+++ b/data/financial_statements/sofp/LYV.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>4956191000</v>
+        <v>4956000000</v>
       </c>
       <c r="C2">
-        <v>5866156000</v>
+        <v>5866000000</v>
       </c>
       <c r="D2">
-        <v>5875019000</v>
+        <v>5875000000</v>
       </c>
       <c r="E2">
-        <v>4887792000</v>
+        <v>4888000000</v>
       </c>
       <c r="F2">
-        <v>4633197000</v>
+        <v>4633000000</v>
       </c>
       <c r="G2">
         <v>4047637000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>1989508000</v>
+        <v>1990000000</v>
       </c>
       <c r="C3">
-        <v>1456198000</v>
+        <v>1456000000</v>
       </c>
       <c r="D3">
-        <v>1210007000</v>
+        <v>1210000000</v>
       </c>
       <c r="E3">
-        <v>1066573000</v>
+        <v>1086000000</v>
       </c>
       <c r="F3">
-        <v>1182242000</v>
+        <v>1182000000</v>
       </c>
       <c r="G3">
         <v>646705000</v>
@@ -858,8 +969,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E4">
         <v>34000000</v>
@@ -872,23 +983,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>72795000</v>
+        <v>982000000</v>
       </c>
       <c r="C5">
-        <v>74906000</v>
+        <v>1228000000</v>
       </c>
       <c r="D5">
-        <v>62182000</v>
+        <v>1025000000</v>
       </c>
       <c r="E5">
-        <v>74834000</v>
+        <v>677000000</v>
       </c>
       <c r="F5">
-        <v>48766000</v>
+        <v>740000000</v>
       </c>
       <c r="G5">
         <v>50534000</v>
@@ -994,23 +1105,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>7927389000</v>
+        <v>7927000000</v>
       </c>
       <c r="C6">
-        <v>8550782000</v>
+        <v>8551000000</v>
       </c>
       <c r="D6">
-        <v>8110435000</v>
+        <v>8110000000</v>
       </c>
       <c r="E6">
-        <v>6684093000</v>
+        <v>6684000000</v>
       </c>
       <c r="F6">
-        <v>6555291000</v>
+        <v>6555000000</v>
       </c>
       <c r="G6">
         <v>5423251000</v>
@@ -1116,23 +1227,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>1097931000</v>
+        <v>2714000000</v>
       </c>
       <c r="C7">
-        <v>1089421000</v>
+        <v>2686000000</v>
       </c>
       <c r="D7">
-        <v>1086307000</v>
+        <v>2736000000</v>
       </c>
       <c r="E7">
-        <v>1091929000</v>
+        <v>2631000000</v>
       </c>
       <c r="F7">
-        <v>1041854000</v>
+        <v>2433000000</v>
       </c>
       <c r="G7">
         <v>1046478000</v>
@@ -1238,8 +1349,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>361000000</v>
@@ -1276,23 +1387,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>3874881000</v>
+        <v>3875000000</v>
       </c>
       <c r="C9">
-        <v>3942225000</v>
+        <v>3942000000</v>
       </c>
       <c r="D9">
-        <v>3978200000</v>
+        <v>3978000000</v>
       </c>
       <c r="E9">
-        <v>3986235000</v>
+        <v>3986000000</v>
       </c>
       <c r="F9">
-        <v>3211011000</v>
+        <v>3211000000</v>
       </c>
       <c r="G9">
         <v>3269306000</v>
@@ -1398,23 +1509,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>1270816000</v>
+        <v>910000000</v>
       </c>
       <c r="C10">
-        <v>1242089000</v>
+        <v>915000000</v>
       </c>
       <c r="D10">
-        <v>1181678000</v>
+        <v>864000000</v>
       </c>
       <c r="E10">
-        <v>1101150000</v>
+        <v>738000000</v>
       </c>
       <c r="F10">
-        <v>1131938000</v>
+        <v>861000000</v>
       </c>
       <c r="G10">
         <v>1121437000</v>
@@ -1520,8 +1631,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>7859625000</v>
@@ -1642,23 +1753,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>15787010000</v>
+        <v>15787000000</v>
       </c>
       <c r="C12">
-        <v>16421030000</v>
+        <v>16421000000</v>
       </c>
       <c r="D12">
-        <v>16006600000</v>
+        <v>16007000000</v>
       </c>
       <c r="E12">
-        <v>14402320000</v>
+        <v>14402000000</v>
       </c>
       <c r="F12">
-        <v>13330740000</v>
+        <v>13331000000</v>
       </c>
       <c r="G12">
         <v>12245660000</v>
@@ -1764,23 +1875,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>1775825000</v>
+        <v>1776000000</v>
       </c>
       <c r="C13">
-        <v>1835531000</v>
+        <v>1836000000</v>
       </c>
       <c r="D13">
-        <v>1871356000</v>
+        <v>1871000000</v>
       </c>
       <c r="E13">
-        <v>1642968000</v>
+        <v>1643000000</v>
       </c>
       <c r="F13">
-        <v>1610273000</v>
+        <v>1610000000</v>
       </c>
       <c r="G13">
         <v>1395165000</v>
@@ -1886,8 +1997,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>2763630000</v>
@@ -2008,23 +2119,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>619500000</v>
+        <v>761000000</v>
       </c>
       <c r="C15">
-        <v>607190000</v>
+        <v>760000000</v>
       </c>
       <c r="D15">
-        <v>611319000</v>
+        <v>750000000</v>
       </c>
       <c r="E15">
-        <v>585254000</v>
+        <v>709000000</v>
       </c>
       <c r="F15">
-        <v>46214000</v>
+        <v>157000000</v>
       </c>
       <c r="G15">
         <v>46481000</v>
@@ -2130,8 +2241,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2269216000</v>
@@ -2252,23 +2363,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>64772000</v>
+        <v>5098000000</v>
       </c>
       <c r="C17">
-        <v>77029000</v>
+        <v>6036000000</v>
       </c>
       <c r="D17">
-        <v>95450000</v>
+        <v>5657000000</v>
       </c>
       <c r="E17">
-        <v>83087000</v>
+        <v>4504000000</v>
       </c>
       <c r="F17">
-        <v>41314000</v>
+        <v>3791000000</v>
       </c>
       <c r="G17">
         <v>45377000</v>
@@ -2374,23 +2485,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>7634487000</v>
+        <v>7634000000</v>
       </c>
       <c r="C18">
-        <v>8632043000</v>
+        <v>8632000000</v>
       </c>
       <c r="D18">
-        <v>8278487000</v>
+        <v>8278000000</v>
       </c>
       <c r="E18">
-        <v>6855722000</v>
+        <v>6856000000</v>
       </c>
       <c r="F18">
-        <v>5558104000</v>
+        <v>5558000000</v>
       </c>
       <c r="G18">
         <v>5165300000</v>
@@ -2496,23 +2607,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>5120197000</v>
+        <v>6810000000</v>
       </c>
       <c r="C19">
-        <v>5140155000</v>
+        <v>6790000000</v>
       </c>
       <c r="D19">
-        <v>5146681000</v>
+        <v>6855000000</v>
       </c>
       <c r="E19">
-        <v>5145484000</v>
+        <v>6752000000</v>
       </c>
       <c r="F19">
-        <v>5686905000</v>
+        <v>7135000000</v>
       </c>
       <c r="G19">
         <v>5295207000</v>
@@ -2618,8 +2729,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E20">
         <v>117000000</v>
@@ -2635,14 +2746,14 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E21">
         <v>237000000</v>
       </c>
       <c r="F21">
-        <v>174083000</v>
+        <v>174000000</v>
       </c>
       <c r="G21">
         <v>173971000</v>
@@ -2748,8 +2859,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>598981000</v>
@@ -2870,23 +2981,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>345329000</v>
+        <v>345000000</v>
       </c>
       <c r="C23">
-        <v>398756000</v>
+        <v>399000000</v>
       </c>
       <c r="D23">
-        <v>436789000</v>
+        <v>437000000</v>
       </c>
       <c r="E23">
-        <v>431581000</v>
+        <v>78000000</v>
       </c>
       <c r="F23">
-        <v>242811000</v>
+        <v>93000000</v>
       </c>
       <c r="G23">
         <v>510711000</v>
@@ -2992,8 +3103,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>7753971000</v>
@@ -3114,23 +3225,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>15388460000</v>
+        <v>14789000000</v>
       </c>
       <c r="C25">
-        <v>16386030000</v>
+        <v>15821000000</v>
       </c>
       <c r="D25">
-        <v>16152220000</v>
+        <v>15571000000</v>
       </c>
       <c r="E25">
-        <v>14590770000</v>
+        <v>14039000000</v>
       </c>
       <c r="F25">
-        <v>13372520000</v>
+        <v>13110000000</v>
       </c>
       <c r="G25">
         <v>12825260000</v>
@@ -3236,8 +3347,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2852112000</v>
@@ -3358,23 +3469,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>2271000</v>
+        <v>2000000</v>
       </c>
       <c r="C27">
-        <v>2256000</v>
+        <v>2000000</v>
       </c>
       <c r="D27">
-        <v>2235000</v>
+        <v>2000000</v>
       </c>
       <c r="E27">
-        <v>2220000</v>
+        <v>2000000</v>
       </c>
       <c r="F27">
-        <v>2218000</v>
+        <v>2000000</v>
       </c>
       <c r="G27">
         <v>2164000</v>
@@ -3480,23 +3591,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>-2768195000</v>
+        <v>-2768000000</v>
       </c>
       <c r="C28">
-        <v>-3129597000</v>
+        <v>-3130000000</v>
       </c>
       <c r="D28">
-        <v>-3317397000</v>
+        <v>-3317000000</v>
       </c>
       <c r="E28">
-        <v>-3327737000</v>
+        <v>-3328000000</v>
       </c>
       <c r="F28">
-        <v>-3132813000</v>
+        <v>-3133000000</v>
       </c>
       <c r="G28">
         <v>-3179691000</v>
@@ -3602,8 +3713,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>6865000</v>
@@ -3718,23 +3829,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>398556000</v>
+        <v>-75000000</v>
       </c>
       <c r="C30">
-        <v>34998200</v>
+        <v>-410000000</v>
       </c>
       <c r="D30">
-        <v>-145616800</v>
+        <v>-518000000</v>
       </c>
       <c r="E30">
-        <v>-188454000</v>
+        <v>-583000000</v>
       </c>
       <c r="F30">
-        <v>-41775900</v>
+        <v>-405000000</v>
       </c>
       <c r="G30">
         <v>-579603000</v>
@@ -3840,23 +3951,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>398556000</v>
+        <v>-75000000</v>
       </c>
       <c r="C31">
-        <v>34998000</v>
+        <v>-410000000</v>
       </c>
       <c r="D31">
-        <v>-145617000</v>
+        <v>-518000000</v>
       </c>
       <c r="E31">
-        <v>-188454000</v>
+        <v>-583000000</v>
       </c>
       <c r="F31">
-        <v>-41776000</v>
+        <v>-405000000</v>
       </c>
       <c r="G31">
         <v>-579603000</v>
@@ -3962,8 +4073,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>15787010000</v>
@@ -4084,8 +4195,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>226730000</v>
@@ -4206,8 +4317,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-3476325000</v>
@@ -4328,23 +4439,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>783506000</v>
+        <v>2615000000</v>
       </c>
       <c r="C35">
-        <v>-118811000</v>
+        <v>1684000000</v>
       </c>
       <c r="D35">
-        <v>-117019000</v>
+        <v>1730000000</v>
       </c>
       <c r="E35">
-        <v>842946000</v>
+        <v>2573000000</v>
       </c>
       <c r="F35">
-        <v>1099922000</v>
+        <v>2659000000</v>
       </c>
       <c r="G35">
         <v>1294051000</v>
@@ -4450,23 +4561,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>5739697000</v>
+        <v>7571000000</v>
       </c>
       <c r="C36">
-        <v>5747345000</v>
+        <v>7550000000</v>
       </c>
       <c r="D36">
-        <v>5758000000</v>
+        <v>7605000000</v>
       </c>
       <c r="E36">
-        <v>5730738000</v>
+        <v>7461000000</v>
       </c>
       <c r="F36">
-        <v>5733119000</v>
+        <v>7292000000</v>
       </c>
       <c r="G36">
         <v>5341688000</v>
